--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5371DE7-DBF4-4C3D-A603-C8A6FCC4227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC213F-235E-46AD-BFEE-892F9C13BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="323">
   <si>
     <t>Тест-кейс</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Фактический результат</t>
   </si>
   <si>
     <t>Покрытие</t>
@@ -827,6 +824,273 @@
   </si>
   <si>
     <t>Отображается уводомление об ошибке о том что на устройстве не достаточно памяти</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Разрешены ли в поле заглавные и прописные буквы</t>
+  </si>
+  <si>
+    <t>Допускает ли поле ввод только цифр</t>
+  </si>
+  <si>
+    <t>Допускает ли поле ввод только букв</t>
+  </si>
+  <si>
+    <t>Допускает ли поле значения с пробелами между ними. Например, “Qa Rocks 2023”</t>
+  </si>
+  <si>
+    <t>Разрешает ли поле вводить только пробелы</t>
+  </si>
+  <si>
+    <t>Позволяет ли поле копировать и вставлять значения</t>
+  </si>
+  <si>
+    <t>Возможность оставить обязательное поле незаполненным</t>
+  </si>
+  <si>
+    <t>Выводится ли предупреждающее сообщение при отправке формы без заполнения данного поля</t>
+  </si>
+  <si>
+    <t>Проверка сохранения значений в поле после нажатия кнопки «Сохранить» или «Отправить»</t>
+  </si>
+  <si>
+    <t>Выводится ли предупреждающее сообщение при редактировании поля</t>
+  </si>
+  <si>
+    <t>Выводится ли предупреждающее сообщение при отправке формы, когда пользователь оставил некоторые обязательные поля пустыми</t>
+  </si>
+  <si>
+    <t>Появление предупреждающего сообщения при вводе некорректных значений</t>
+  </si>
+  <si>
+    <t>Установка времени на календаре</t>
+  </si>
+  <si>
+    <t>Установка времени через поле ввода</t>
+  </si>
+  <si>
+    <t>Установка даты на календаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.3.3</t>
+  </si>
+  <si>
+    <t>Отмечено ли поле специальным символом, например, красным символом «!»</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле значение QaRocks2023</t>
+  </si>
+  <si>
+    <t>Допускает ли поле буквенные и числовые значения</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле значение 2023</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод чисел и букв</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод  чисел</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод букв</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле значение Qa Rocks 2023</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод чисел, букв и пробелов между ними</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле пробелы</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод пробелов</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле 0,123</t>
+  </si>
+  <si>
+    <t>Разрешены ли в поле десятичные значения</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод десятичных значений</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле !, @, #, $, %, &amp;</t>
+  </si>
+  <si>
+    <t>Разрешены ли в поле специальные символы</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод спец символов</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле значение QaRocks</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Скопировать  в поле значение QaRocks2023</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод заглавных и прописных букв</t>
+  </si>
+  <si>
+    <t>Поле позволяет вставить скопированные значения</t>
+  </si>
+  <si>
+    <t>Незаполненное поле подсвечивается символом !</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Нажать кнопку Sign in</t>
+  </si>
+  <si>
+    <t>Отображается сообщение об ошибке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.7</t>
+  </si>
+  <si>
+    <t>Значение в поле сохраняется</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести  в поле значение QaRocks2023
+3. Нажать кнопку Sign in</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести  в поле значение QaRocks2023
+3. Нажать кнопку Sign in
+4. Удалить из поля значение QaRocks2023
+5. Ввести  в поле значение 2023QaRocks</t>
+  </si>
+  <si>
+    <t>Сообщение о редактировании поля не выводится</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Авторизоваться
+3. Перейти во вкладку News и нажать на кнопку редактировать новости, нажать на кнопку создать новость
+4. Нажать на поле Time
+5. Установить время на календаре</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Авторизоваться
+3. Перейти во вкладку News и нажать на кнопку редактировать новости, нажать на кнопку создать новость
+4. Нажать на поле Time
+5. Нажать на кнопку клавиатура
+5. Установить время через поля ввода</t>
+  </si>
+  <si>
+    <t>Время публикации установлено</t>
+  </si>
+  <si>
+    <t>Дата публикации установлена</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Авторизоваться
+3. Перейти во вкладку News и нажать на кнопку редактировать новости, нажать на кнопку создать новость
+4. Нажать на поле Publication Date
+5. Установить  на дату календаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.1.11</t>
+  </si>
+  <si>
+    <t>Разрешены ли в поле символы на кириллице</t>
+  </si>
+  <si>
+    <t>Разрешены ли в поле символы на латинице</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле Тестировщик</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение
+2. Ввести в поле tester</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод символов на кириллице</t>
+  </si>
+  <si>
+    <t>Поле допускает ввод символов на латинице</t>
   </si>
 </sst>
 </file>
@@ -899,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -918,6 +1182,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1198,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1211,19 +1481,19 @@
     <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1237,1109 +1507,1667 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
+      <c r="H1" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
+      <c r="H5" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
+      <c r="H6" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
+      <c r="H7" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="H8" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
+      <c r="H9" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
+      <c r="H10" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
+      <c r="H14" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
+      <c r="H15" s="9" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="H18" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H29" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="E32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="F33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="F34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="F36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="F37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="H38" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="F39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="F40" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="H41" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="H42" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="H55" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="H56" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="H57" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="H65" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplom\Diploma-project-in-the-profession-of--Testing-Engineer-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC213F-235E-46AD-BFEE-892F9C13BB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7D95D-9015-4AD4-AF36-E508E16BB63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="318">
   <si>
     <t>Тест-кейс</t>
   </si>
@@ -353,18 +353,6 @@
     <t xml:space="preserve">Отображение информации о приложении в системе    </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.20</t>
-  </si>
-  <si>
     <t>Удаление приложения</t>
   </si>
   <si>
@@ -488,93 +476,9 @@
     <t xml:space="preserve"> 1.1.7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.31</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.3.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.3.2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.4.1</t>
   </si>
   <si>
@@ -588,24 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 1.5.2</t>
-  </si>
-  <si>
-    <t>Пройти тесты 1.2.1-1.2.31 с утсновленной светлой темой</t>
-  </si>
-  <si>
-    <t>Пройти тесты 1.2.1-1.2.31 с утсновленной темной темной темой</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.6.2</t>
-  </si>
-  <si>
-    <t>Пройти тесты 1.2.1-1.2.31 с установленной портретной ориентацией</t>
-  </si>
-  <si>
-    <t>Пройти тесты 1.2.1-1.2.31 с установленной альбомной ориентацией</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.1.1</t>
@@ -926,15 +812,6 @@
   </si>
   <si>
     <t xml:space="preserve">  8.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8.3.3</t>
   </si>
   <si>
     <t>Отмечено ли поле специальным символом, например, красным символом «!»</t>
@@ -1091,6 +968,114 @@
   </si>
   <si>
     <t>Поле допускает ввод символов на латинице</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3.11</t>
+  </si>
+  <si>
+    <t>Пройти тесты 9.1.1-9.3.11 с установленной портретной ориентацией</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.2.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.4.3</t>
   </si>
 </sst>
 </file>
@@ -1470,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1508,12 +1493,12 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>89</v>
@@ -1525,12 +1510,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1545,12 +1530,12 @@
         <v>9</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>90</v>
@@ -1565,12 +1550,12 @@
         <v>10</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1585,12 +1570,12 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>91</v>
@@ -1608,15 +1593,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
@@ -1629,15 +1614,15 @@
         <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1649,1525 +1634,1525 @@
         <v>23</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="H40" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>129</v>
+      <c r="F41" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>252</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>255</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>276</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>277</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="2" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="2" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>100</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>101</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>226</v>
+        <v>102</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>227</v>
+        <v>312</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>228</v>
+        <v>104</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>234</v>
+        <v>105</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="66" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>239</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>237</v>
+        <v>54</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>242</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>237</v>
+        <v>72</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>263</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>283</v>
+        <v>117</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="B72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="B75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H74" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H82" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="126" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>259</v>
+        <v>115</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
